--- a/config/forms/contact/case_contact-create.xlsx
+++ b/config/forms/contact/case_contact-create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDA3978-5E24-41A5-81EA-59DFB1B556D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BE16E7-F094-4902-9B92-7EC7E63012F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8112" uniqueCount="2160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8116" uniqueCount="2162">
   <si>
     <t>type</t>
   </si>
@@ -6313,9 +6313,6 @@
     <t>contact_type</t>
   </si>
   <si>
-    <t>contact_date</t>
-  </si>
-  <si>
     <t>contact_relationship</t>
   </si>
   <si>
@@ -6409,9 +6406,6 @@
     <t>contact_geolocation_valid</t>
   </si>
   <si>
-    <t>Are you with the contact and is this their residential location?</t>
-  </si>
-  <si>
     <t>contact_occupation</t>
   </si>
   <si>
@@ -6524,17 +6518,36 @@
   </si>
   <si>
     <t>&lt;h3 style="border-bottom: rgb(150, 150, 150) dashed 1px; padding: 5px 0;"&gt;Contact with the case&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>contact_last_date</t>
+  </si>
+  <si>
+    <t>contact_first_date</t>
+  </si>
+  <si>
+    <t>Date of first contact with the patient</t>
+  </si>
+  <si>
+    <t>Are you with the contact at their home?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6650,42 +6663,43 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
@@ -6920,14 +6934,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE1001"/>
+  <dimension ref="A1:AE1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M47" sqref="M47"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7149,7 +7163,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>14</v>
@@ -7194,7 +7208,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="14" spans="1:31" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7202,13 +7216,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="15" spans="1:31" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7216,13 +7230,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="16" spans="1:31" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7230,13 +7244,13 @@
         <v>23</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7245,7 +7259,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>14</v>
@@ -7259,10 +7273,10 @@
         <v>53</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7509,10 +7523,10 @@
         <v>53</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7520,25 +7534,25 @@
         <v>89</v>
       </c>
       <c r="B41" s="20" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>2092</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>2093</v>
       </c>
       <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:13" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>2087</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7546,7 +7560,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>14</v>
@@ -7561,7 +7575,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>14</v>
@@ -7578,21 +7592,21 @@
         <v>2083</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7600,10 +7614,10 @@
         <v>16</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7620,7 +7634,7 @@
         <v>21</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>187</v>
@@ -7643,12 +7657,12 @@
         <v>2084</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="20" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>2080</v>
@@ -7663,10 +7677,10 @@
         <v>2084</v>
       </c>
       <c r="H51" s="20" t="s">
+        <v>2130</v>
+      </c>
+      <c r="L51" s="20" t="s">
         <v>2132</v>
-      </c>
-      <c r="L51" s="20" t="s">
-        <v>2134</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7685,10 +7699,10 @@
         <v>89</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>2121</v>
+        <v>2161</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>21</v>
@@ -7700,7 +7714,7 @@
         <v>19</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7713,7 +7727,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
@@ -7727,24 +7741,24 @@
         <v>2085</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>21</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7752,16 +7766,16 @@
         <v>16</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>21</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7769,16 +7783,16 @@
         <v>16</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>21</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="61" spans="1:12" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7786,7 +7800,7 @@
         <v>19</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7798,7 +7812,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -7812,18 +7826,18 @@
         <v>2086</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="20" t="s">
-        <v>2089</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>2131</v>
+      <c r="B65" s="21" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>2160</v>
       </c>
       <c r="J65" s="13" t="s">
         <v>70</v>
@@ -7831,50 +7845,53 @@
     </row>
     <row r="66" spans="1:10" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
-        <v>2111</v>
-      </c>
-      <c r="B66" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="20" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B67" s="20" t="s">
         <v>2088</v>
       </c>
-      <c r="C66" s="20" t="s">
-        <v>2091</v>
-      </c>
-      <c r="H66" s="20" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="7" t="s">
+      <c r="C67" s="20" t="s">
+        <v>2090</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>2149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="1:10" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="7" t="s">
+      <c r="B68" s="7" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:10" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B70" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H70" s="7" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7882,10 +7899,10 @@
         <v>23</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7893,18 +7910,21 @@
         <v>23</v>
       </c>
       <c r="B72" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="G73" s="9" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7912,10 +7932,17 @@
         <v>19</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>2116</v>
+      </c>
+    </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8842,6 +8869,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -9153,10 +9181,10 @@
         <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="C33" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9549,10 +9577,10 @@
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>177</v>
@@ -9560,10 +9588,10 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>178</v>
@@ -9571,10 +9599,10 @@
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>166</v>
@@ -9582,10 +9610,10 @@
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>167</v>
@@ -9593,32 +9621,32 @@
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>170</v>
@@ -9626,10 +9654,10 @@
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>171</v>
@@ -9637,10 +9665,10 @@
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>172</v>
@@ -9648,10 +9676,10 @@
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>173</v>
@@ -9659,10 +9687,10 @@
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>174</v>
@@ -9670,10 +9698,10 @@
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>175</v>
@@ -9681,13 +9709,13 @@
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B84" s="14" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C84" s="14" t="s">
         <v>2107</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9702,7 +9730,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9713,7 +9741,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9724,7 +9752,7 @@
         <v>3</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9735,7 +9763,7 @@
         <v>4</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -36632,7 +36660,7 @@
       </c>
       <c r="C2" s="6" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-11-23 15-00</v>
+        <v>2023-12-04 15-29</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
